--- a/Tender/configUBS.xlsx
+++ b/Tender/configUBS.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaod\Desktop\RPA Project\UiPathPractice\Tender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5990145E-2500-4392-A8F4-C2D554B4DF6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5E0B73-EC6C-478E-A62E-217B99694369}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12660" activeTab="1" xr2:uid="{25D545AF-F4DF-443A-9AF0-D6B814F61477}"/>
+    <workbookView xWindow="4656" yWindow="3204" windowWidth="23040" windowHeight="12660" xr2:uid="{25D545AF-F4DF-443A-9AF0-D6B814F61477}"/>
   </bookViews>
   <sheets>
     <sheet name="Keyword" sheetId="2" r:id="rId1"/>
-    <sheet name="EmailTemplate" sheetId="1" r:id="rId2"/>
-    <sheet name="Settings" sheetId="3" r:id="rId3"/>
+    <sheet name="AdvanceSearch" sheetId="4" r:id="rId2"/>
+    <sheet name="EmailTemplate" sheetId="1" r:id="rId3"/>
+    <sheet name="Settings" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,213 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tse Kiat</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{94C75662-EFB6-4A75-911E-592962519D0E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tse Kiat:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+configUBS.xlsx user guide
+worksheet &lt;keyword&gt; 
+ - allows different search keywords
+worksheet &lt;AdvanchSearch&gt;
+ - allows for future improvements
+worksheet &lt;EmailTemplate&gt; 
+ - allows setup of email message format
+worksheet &lt;Settings&gt;
+ - can change download path
+ - can change final excel report file name
+ - can change singpass save in Orchestrator Asset
+ - can change name for email windows credential</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tse Kiat</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{14E120A2-FD59-4953-B42F-C929C6AC8743}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tse Kiat:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+configUBS.xlsx user guide
+worksheet &lt;keyword&gt; 
+ - allows different search keywords
+worksheet &lt;AdvanchSearch&gt;
+ - allows for future improvements
+worksheet &lt;EmailTemplate&gt; 
+ - allows setup of email message format
+worksheet &lt;Settings&gt;
+ - can change download path
+ - can change final excel report file name
+ - can change singpass save in Orchestrator Asset
+ - can change name for email windows credential</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tse Kiat</author>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{4997FD34-B668-4F1A-BF42-99C4A8AD4AB6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tse Kiat:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+configUBS.xlsx user guide
+worksheet &lt;keyword&gt; 
+ - allows different search keywords
+worksheet &lt;AdvanchSearch&gt;
+ - allows for future improvements
+worksheet &lt;EmailTemplate&gt; 
+ - allows setup of email message format
+worksheet &lt;Settings&gt;
+ - can change download path
+ - can change final excel report file name
+ - can change singpass save in Orchestrator Asset
+ - can change name for email windows credential</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tse Kiat</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{36703BDF-6BA5-40C7-B3B9-3BE02FB46C3E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tse Kiat:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+currently not in use
+for future improvements</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{F4608586-8A0E-43A6-A449-75D043289010}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tse Kiat:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+configUBS.xlsx user guide
+worksheet &lt;keyword&gt; 
+ - allows different search keywords
+worksheet &lt;AdvanchSearch&gt;
+ - allows for future improvements
+worksheet &lt;EmailTemplate&gt; 
+ - allows setup of email message format
+worksheet &lt;Settings&gt;
+ - can change download path
+ - can change final excel report file name
+ - can change singpass save in Orchestrator Asset
+ - can change name for email windows credential</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Gebiz Tenders</t>
   </si>
@@ -117,12 +323,66 @@
 This email is sent by an UiPath Orchestrator Unattended bot automation.
 regards</t>
   </si>
+  <si>
+    <t>Advance Search</t>
+  </si>
+  <si>
+    <t>Yes/No</t>
+  </si>
+  <si>
+    <t>Title All</t>
+  </si>
+  <si>
+    <t>Title Any</t>
+  </si>
+  <si>
+    <t>Title None</t>
+  </si>
+  <si>
+    <t>Tilt Exact</t>
+  </si>
+  <si>
+    <t>Document No</t>
+  </si>
+  <si>
+    <t>Reference No</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>Opportunity</t>
+  </si>
+  <si>
+    <t>Procurement</t>
+  </si>
+  <si>
+    <t>SupplyWorkHead</t>
+  </si>
+  <si>
+    <t>Publish Date</t>
+  </si>
+  <si>
+    <t>Close Date</t>
+  </si>
+  <si>
+    <t>Awarded Date</t>
+  </si>
+  <si>
+    <t>From Date</t>
+  </si>
+  <si>
+    <t>To Date</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -143,6 +403,19 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -207,6 +480,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -505,11 +782,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8CDA70-3B77-4446-B815-8EA70450514C}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8CDA70-3B77-4446-B815-8EA70450514C}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -517,27 +794,124 @@
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E9B932-F46E-4292-B019-FC95463D2DDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A45238-F6A9-477B-8A6F-0F906750CFDF}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.9140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E9B932-F46E-4292-B019-FC95463D2DDD}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -692,15 +1066,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0660281-02AA-4D96-9106-C07AFDA1290E}">
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0660281-02AA-4D96-9106-C07AFDA1290E}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -709,9 +1084,10 @@
     <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -724,8 +1100,11 @@
       <c r="D1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -738,8 +1117,13 @@
       <c r="D2" t="s">
         <v>23</v>
       </c>
-    </row>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>